--- a/Excel Assignments/VLOOKUP - Approximate Match.xlsx
+++ b/Excel Assignments/VLOOKUP - Approximate Match.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\GitHub\Excel Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9110F46-4E28-499F-A217-205FC8106F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483C8084-166F-43C6-A6BB-00F3B7B86930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="3015" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Question" sheetId="1" r:id="rId1"/>
@@ -446,7 +446,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
